--- a/src/test/java/please/change/me/sample/ss11AC/B11AC010ActionRequestTest.xlsx
+++ b/src/test/java/please/change/me/sample/ss11AC/B11AC010ActionRequestTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
   <si>
     <t>LIST_MAP=testShots</t>
   </si>
@@ -553,48 +553,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">// </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-      </rPr>
-      <t>テスト用の採番テーブル</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SETUP_TABLE=ID_GENERATE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1103</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>SETUP_TABLE=LOAN_APPLICATION_HISTORY</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -623,9 +581,6 @@
   </si>
   <si>
     <t>LOAN_APPLI_HISTORY_ID</t>
-  </si>
-  <si>
-    <t>LOAN_APPLI_HISTORY_ID</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -642,39 +597,6 @@
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">// </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ローン申請履歴テーブ</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EXECUTIONER_ID</t>
-  </si>
-  <si>
-    <t>LOAN_APPLI_ACTION_CD</t>
-  </si>
-  <si>
-    <t>LOAN_APPLI_RESULT_CD</t>
-  </si>
-  <si>
-    <t>HISTORY_COMMENT</t>
-  </si>
-  <si>
-    <t>EXPECTED_TABLE[1]=LOAN_APPLICATION_HISTORY</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -716,23 +638,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>000000000101</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>000000000102</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>000000000103</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>EXPECTED_TABLE[1]=WF_ACTIVE_FLOW_NODE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EXECUTION_DATE_TIME</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1108,7 +1014,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1215,21 +1121,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1251,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,23 +1233,12 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="25" fillId="9" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1682,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,45 +1713,19 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="39" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="39" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1737,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1990,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>88</v>
@@ -2046,7 +1900,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>38</v>
@@ -2057,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>38</v>
@@ -2068,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>38</v>
@@ -2079,7 +1933,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>38</v>
@@ -2090,7 +1944,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>38</v>
@@ -2098,12 +1952,12 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="23" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="23" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2121,142 +1975,142 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="51" t="s">
+      <c r="B22" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="51" t="s">
+      <c r="B23" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="51" t="s">
+      <c r="B24" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="51" t="s">
+      <c r="B25" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="51" t="s">
+      <c r="B26" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="51" t="s">
+      <c r="B27" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="51" t="s">
+      <c r="B28" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="51" t="s">
+      <c r="B29" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="51" t="s">
+      <c r="B30" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2279,43 +2133,43 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="47" t="s">
-        <v>132</v>
+      <c r="B35" s="42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="48" t="s">
-        <v>131</v>
+      <c r="B36" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>131</v>
+      <c r="B37" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>131</v>
+      <c r="B38" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>132</v>
+      <c r="B39" s="42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2347,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>87</v>
@@ -2361,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>87</v>
@@ -2375,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>87</v>
@@ -2389,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>87</v>
@@ -2403,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>87</v>
@@ -2414,12 +2268,12 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="23" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="23" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2441,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>87</v>
@@ -2455,7 +2309,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>87</v>
@@ -2469,7 +2323,7 @@
         <v>35</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>87</v>
@@ -2483,7 +2337,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>87</v>
@@ -2497,7 +2351,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>87</v>
@@ -2508,7 +2362,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="23" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2557,10 +2411,10 @@
         <v>23</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H65" s="39" t="s">
         <v>24</v>
@@ -2576,177 +2430,177 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="13.5">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="47" t="s">
+      <c r="D66" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G66" s="47" t="s">
+      <c r="F66" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H66" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="47" t="s">
+      <c r="K66" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.5">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="G67" s="48" t="s">
+      <c r="F67" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H67" s="48" t="s">
+      <c r="H67" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I67" s="48" t="s">
+      <c r="I67" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="J67" s="48" t="s">
+      <c r="J67" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K67" s="48" t="s">
+      <c r="K67" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16.5">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" s="48" t="s">
+      <c r="F68" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="48" t="s">
+      <c r="J68" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K68" s="48" t="s">
+      <c r="K68" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16.5">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G69" s="48" t="s">
+      <c r="F69" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H69" s="48" t="s">
+      <c r="H69" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="48" t="s">
+      <c r="J69" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="13.5">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="47" t="s">
+      <c r="D70" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" s="47" t="s">
+      <c r="F70" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I70" s="47" t="s">
+      <c r="I70" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="J70" s="47" t="s">
+      <c r="J70" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K70" s="47" t="s">
+      <c r="K70" s="42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2798,7 +2652,7 @@
     </row>
     <row r="80" spans="1:13" s="22" customFormat="1">
       <c r="A80" s="23" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B80" s="25"/>
     </row>
@@ -2818,7 +2672,7 @@
         <v>17</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>38</v>
@@ -2829,7 +2683,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>38</v>
@@ -2840,24 +2694,24 @@
         <v>35</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13.5">
-      <c r="A85" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="49" t="s">
+      <c r="A85" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="50" t="s">
-        <v>120</v>
+      <c r="D85" s="45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2865,7 +2719,7 @@
         <v>37</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>38</v>
@@ -2898,10 +2752,10 @@
         <v>23</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H90" s="28" t="s">
         <v>24</v>
@@ -2932,8 +2786,8 @@
       <c r="E91" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="41" t="s">
-        <v>100</v>
+      <c r="F91" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>50</v>
@@ -2959,7 +2813,7 @@
         <v>34</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>62</v>
@@ -2968,7 +2822,7 @@
         <v>45</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>51</v>
@@ -2994,7 +2848,7 @@
         <v>35</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D93" s="29" t="s">
         <v>63</v>
@@ -3003,7 +2857,7 @@
         <v>46</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G93" s="29" t="s">
         <v>52</v>
@@ -3029,7 +2883,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D94" s="29" t="s">
         <v>64</v>
@@ -3038,7 +2892,7 @@
         <v>47</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G94" s="29" t="s">
         <v>53</v>
@@ -3073,7 +2927,7 @@
         <v>48</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>54</v>
@@ -3091,17 +2945,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1">
+    <row r="97" spans="1:3" ht="12.75" customHeight="1">
       <c r="A97" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1">
+    <row r="98" spans="1:3" ht="12.75" customHeight="1">
       <c r="A98" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>13</v>
       </c>
@@ -3109,186 +2963,48 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1">
+    <row r="100" spans="1:3" ht="12.75" customHeight="1">
       <c r="A100" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" customHeight="1">
       <c r="A101" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1">
+      <c r="B101" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" customHeight="1">
       <c r="A102" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A103" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B103" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103" s="50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1">
+      <c r="B102" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A103" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" customHeight="1">
       <c r="A104" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-    </row>
-    <row r="107" spans="1:11" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-    </row>
-    <row r="108" spans="1:11" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D108" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E108" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F108" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G108" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-    </row>
-    <row r="109" spans="1:11" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C109" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E109" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G109" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-    </row>
-    <row r="110" spans="1:11" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G110" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-    </row>
-    <row r="111" spans="1:11" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D111" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F111" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G111" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
